--- a/biology/Médecine/Ligne_de_Langer/Ligne_de_Langer.xlsx
+++ b/biology/Médecine/Ligne_de_Langer/Ligne_de_Langer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lignes de Langer sont des lignes de tension situées dans la peau pour assurer son tonus.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lignes ont été découvertes pour la première fois en 1861 par l'anatomiste autrichien Karl Langer (en) (1819–1887)[1],[2],[3], bien qu'il ait cité le chirurgien Guillaume Dupuytren comme étant le premier à reconnaître le phénomène. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lignes ont été découvertes pour la première fois en 1861 par l'anatomiste autrichien Karl Langer (en) (1819–1887) bien qu'il ait cité le chirurgien Guillaume Dupuytren comme étant le premier à reconnaître le phénomène. 
 Langer a percé de nombreux trous à de courtes distances les uns des autres dans la peau d'un cadavre avec un outil qui avait une pointe de forme circulaire, semblable à un pic à glace. Il a remarqué que les perforations cutanées qui en résultaient avaient des formes ellipsoïdales. À partir de ces tests, il a observé des modèles et a pu déterminer les directions des lignes par les axes les plus longs des trous et des lignes ellipsoïdales.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lignes de Langer sont visibles sur la surface palmaire des doigts, et présentent des motifs circulaires au niveau du cou et du tronc.
-Ces lignes sont d'une importance particulière pour un chirurgien[4] : lors des incisions effectuées pendant une opérations, la cicatrisation est meilleure lorsque les incisions sont parallèles aux lignes.
+Ces lignes sont d'une importance particulière pour un chirurgien : lors des incisions effectuées pendant une opérations, la cicatrisation est meilleure lorsque les incisions sont parallèles aux lignes.
 </t>
         </is>
       </c>
